--- a/res/maps/original/ModeleMap-2.xlsx
+++ b/res/maps/original/ModeleMap-2.xlsx
@@ -68,7 +68,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
@@ -126,1226 +126,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1648,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="A1:AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3065,22 +1845,22 @@
         <v>3</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" s="1">
         <v>3</v>
@@ -3151,22 +1931,22 @@
         <v>3</v>
       </c>
       <c r="L18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" s="1">
         <v>3</v>
@@ -3237,22 +2017,22 @@
         <v>3</v>
       </c>
       <c r="L19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19" s="1">
         <v>3</v>
@@ -4752,12 +3532,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AB36">
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="106" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
